--- a/JP (Exclude Game)/Data/Alias.xlsx
+++ b/JP (Exclude Game)/Data/Alias.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Alias_JP" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Alias_JP" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -6677,6 +6677,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -6685,11 +6791,11 @@
   <dimension ref="A1:O426"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C409" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A409" activeCellId="0" sqref="A409"/>
-      <selection pane="bottomRight" activeCell="D423" activeCellId="0" sqref="D423"/>
+      <selection pane="bottomLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="H79" activeCellId="0" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7550,7 +7656,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>89</v>
       </c>
@@ -7558,7 +7664,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>89</v>
       </c>
@@ -7590,7 +7696,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -7619,7 +7725,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>89</v>
       </c>
@@ -7636,7 +7742,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>89</v>
       </c>
@@ -7656,7 +7762,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>89</v>
       </c>
@@ -7676,7 +7782,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
@@ -7696,7 +7802,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
@@ -7707,7 +7813,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
@@ -7721,7 +7827,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
@@ -7735,7 +7841,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
         <v>89</v>
       </c>
@@ -7755,7 +7861,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>89</v>
       </c>
@@ -7769,7 +7875,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>89</v>
       </c>
@@ -7780,7 +7886,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
         <v>89</v>
       </c>
@@ -7800,7 +7906,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>89</v>
       </c>
@@ -7817,7 +7923,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7831,7 +7937,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>89</v>
       </c>
@@ -7842,7 +7948,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>89</v>
       </c>
@@ -7859,7 +7965,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
         <v>89</v>
       </c>
@@ -7882,7 +7988,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
         <v>89</v>
       </c>
@@ -7917,7 +8023,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>89</v>
       </c>
@@ -7940,7 +8046,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>89</v>
       </c>
@@ -7981,7 +8087,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>317</v>
       </c>
@@ -8022,7 +8128,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>317</v>
       </c>
@@ -8057,7 +8163,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>317</v>
       </c>
@@ -8092,7 +8198,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>317</v>
       </c>
@@ -8115,7 +8221,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>317</v>
       </c>
@@ -8144,7 +8250,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
         <v>317</v>
       </c>
@@ -8164,7 +8270,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>317</v>
       </c>
@@ -8196,7 +8302,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
         <v>317</v>
       </c>
@@ -8222,7 +8328,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>317</v>
       </c>
@@ -8251,7 +8357,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
         <v>317</v>
       </c>
@@ -8271,7 +8377,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>317</v>
       </c>
@@ -8300,7 +8406,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>317</v>
       </c>
@@ -8332,7 +8438,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>317</v>
       </c>
@@ -8346,7 +8452,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>317</v>
       </c>
@@ -8375,7 +8481,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
         <v>317</v>
       </c>
@@ -8395,7 +8501,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
         <v>317</v>
       </c>
@@ -8412,7 +8518,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
         <v>423</v>
       </c>
@@ -8435,7 +8541,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
         <v>423</v>
       </c>
@@ -8461,7 +8567,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
         <v>436</v>
       </c>
@@ -8499,7 +8605,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
         <v>436</v>
       </c>
@@ -8534,7 +8640,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
         <v>436</v>
       </c>
@@ -8557,7 +8663,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
         <v>436</v>
       </c>
@@ -8586,7 +8692,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
         <v>472</v>
       </c>
@@ -8633,7 +8739,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>472</v>
       </c>
@@ -8674,7 +8780,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>472</v>
       </c>
@@ -8715,7 +8821,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
         <v>472</v>
       </c>
@@ -8747,7 +8853,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>472</v>
       </c>
@@ -8773,7 +8879,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>472</v>
       </c>
@@ -8811,7 +8917,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>472</v>
       </c>
@@ -8846,7 +8952,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
         <v>472</v>
       </c>
@@ -8875,7 +8981,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>472</v>
       </c>
@@ -8913,7 +9019,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
         <v>472</v>
       </c>
@@ -8951,7 +9057,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
         <v>472</v>
       </c>
@@ -8974,7 +9080,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
         <v>472</v>
       </c>
@@ -9018,7 +9124,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
         <v>472</v>
       </c>
@@ -9038,7 +9144,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
         <v>472</v>
       </c>
@@ -9061,7 +9167,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
         <v>472</v>
       </c>
@@ -9069,7 +9175,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
         <v>472</v>
       </c>
@@ -9077,7 +9183,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
         <v>472</v>
       </c>
@@ -9088,7 +9194,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
         <v>594</v>
       </c>
@@ -9120,7 +9226,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
         <v>594</v>
       </c>
@@ -9137,7 +9243,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
         <v>594</v>
       </c>
@@ -9154,7 +9260,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
         <v>594</v>
       </c>
@@ -9174,7 +9280,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
         <v>612</v>
       </c>
@@ -9194,7 +9300,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
         <v>612</v>
       </c>
@@ -9217,7 +9323,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
         <v>612</v>
       </c>
@@ -9234,7 +9340,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
         <v>612</v>
       </c>
@@ -9257,7 +9363,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
         <v>612</v>
       </c>
@@ -9271,7 +9377,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
         <v>612</v>
       </c>
@@ -9291,7 +9397,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
         <v>612</v>
       </c>
@@ -9314,7 +9420,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
         <v>612</v>
       </c>
@@ -9331,7 +9437,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
         <v>612</v>
       </c>
@@ -9345,7 +9451,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
         <v>612</v>
       </c>
@@ -9359,7 +9465,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
         <v>612</v>
       </c>
@@ -9376,7 +9482,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
         <v>612</v>
       </c>
@@ -9399,7 +9505,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
         <v>612</v>
       </c>
@@ -9413,7 +9519,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
         <v>612</v>
       </c>
@@ -9430,7 +9536,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
         <v>612</v>
       </c>
@@ -9447,7 +9553,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
         <v>612</v>
       </c>
@@ -9464,7 +9570,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
         <v>612</v>
       </c>
@@ -9481,7 +9587,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
         <v>612</v>
       </c>
@@ -9495,7 +9601,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
         <v>612</v>
       </c>
@@ -9512,7 +9618,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
         <v>612</v>
       </c>
@@ -9529,7 +9635,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
         <v>612</v>
       </c>
@@ -9546,7 +9652,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
         <v>612</v>
       </c>
@@ -9563,7 +9669,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
         <v>612</v>
       </c>
@@ -9577,7 +9683,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
         <v>612</v>
       </c>
@@ -9594,7 +9700,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
         <v>612</v>
       </c>
@@ -9608,7 +9714,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
         <v>612</v>
       </c>
@@ -9616,7 +9722,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
         <v>612</v>
       </c>
@@ -9654,7 +9760,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
         <v>612</v>
       </c>
@@ -9689,7 +9795,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
         <v>612</v>
       </c>
@@ -9718,7 +9824,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
         <v>612</v>
       </c>
@@ -9747,7 +9853,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
         <v>612</v>
       </c>
@@ -9776,7 +9882,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
         <v>612</v>
       </c>
@@ -9820,7 +9926,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
         <v>612</v>
       </c>
@@ -9843,7 +9949,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
         <v>612</v>
       </c>
@@ -9884,7 +9990,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
         <v>612</v>
       </c>
@@ -9916,7 +10022,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
         <v>612</v>
       </c>
@@ -9951,7 +10057,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
         <v>612</v>
       </c>
@@ -9980,7 +10086,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
         <v>612</v>
       </c>
@@ -10006,7 +10112,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
         <v>612</v>
       </c>
@@ -10020,7 +10126,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
         <v>612</v>
       </c>
@@ -10058,7 +10164,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
         <v>612</v>
       </c>
@@ -10096,7 +10202,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
         <v>612</v>
       </c>
@@ -10128,7 +10234,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
         <v>612</v>
       </c>
@@ -10169,7 +10275,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
         <v>612</v>
       </c>
@@ -10210,7 +10316,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
         <v>612</v>
       </c>
@@ -10245,7 +10351,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
         <v>612</v>
       </c>
@@ -10292,7 +10398,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
         <v>612</v>
       </c>
@@ -10324,7 +10430,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
         <v>612</v>
       </c>
@@ -10359,7 +10465,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
         <v>612</v>
       </c>
@@ -10388,7 +10494,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
         <v>612</v>
       </c>
@@ -10426,7 +10532,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
         <v>612</v>
       </c>
@@ -10467,7 +10573,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
         <v>612</v>
       </c>
@@ -10508,7 +10614,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
         <v>612</v>
       </c>
@@ -10549,7 +10655,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
         <v>612</v>
       </c>
@@ -10593,7 +10699,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
         <v>612</v>
       </c>
@@ -10634,7 +10740,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
         <v>612</v>
       </c>
@@ -10663,7 +10769,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
         <v>612</v>
       </c>
@@ -10707,7 +10813,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
         <v>612</v>
       </c>
@@ -10736,7 +10842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
         <v>612</v>
       </c>
@@ -10753,7 +10859,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
         <v>612</v>
       </c>
@@ -10776,7 +10882,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
         <v>612</v>
       </c>
@@ -10817,7 +10923,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
         <v>612</v>
       </c>
@@ -10855,7 +10961,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
         <v>612</v>
       </c>
@@ -10893,7 +10999,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
         <v>612</v>
       </c>
@@ -10934,7 +11040,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
         <v>612</v>
       </c>
@@ -10945,7 +11051,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
         <v>612</v>
       </c>
@@ -10956,7 +11062,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
         <v>612</v>
       </c>
@@ -10967,7 +11073,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
         <v>612</v>
       </c>
@@ -11005,7 +11111,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
         <v>612</v>
       </c>
@@ -11022,7 +11128,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
         <v>612</v>
       </c>
@@ -11066,7 +11172,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
         <v>612</v>
       </c>
@@ -11092,7 +11198,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
         <v>612</v>
       </c>
@@ -11121,7 +11227,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
         <v>612</v>
       </c>
@@ -11147,7 +11253,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
         <v>612</v>
       </c>
@@ -11185,7 +11291,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
         <v>612</v>
       </c>
@@ -11205,7 +11311,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
         <v>1119</v>
       </c>
@@ -11240,7 +11346,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
         <v>1119</v>
       </c>
@@ -11272,7 +11378,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
         <v>612</v>
       </c>
@@ -11289,7 +11395,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
         <v>612</v>
       </c>
@@ -11324,7 +11430,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
         <v>612</v>
       </c>
@@ -11347,7 +11453,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
         <v>612</v>
       </c>
@@ -11355,7 +11461,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
         <v>612</v>
       </c>
@@ -11369,7 +11475,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
         <v>612</v>
       </c>
@@ -11389,7 +11495,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
         <v>612</v>
       </c>
@@ -11415,7 +11521,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
         <v>612</v>
       </c>
@@ -11444,7 +11550,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
         <v>612</v>
       </c>
@@ -11467,7 +11573,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
         <v>612</v>
       </c>
@@ -11484,7 +11590,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
         <v>612</v>
       </c>
@@ -11522,7 +11628,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
         <v>612</v>
       </c>
@@ -11539,7 +11645,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
         <v>612</v>
       </c>
@@ -11580,7 +11686,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
         <v>612</v>
       </c>
@@ -11606,7 +11712,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
         <v>612</v>
       </c>
@@ -11635,7 +11741,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
         <v>612</v>
       </c>
@@ -11655,7 +11761,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
         <v>612</v>
       </c>
@@ -11678,7 +11784,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
         <v>612</v>
       </c>
@@ -11701,7 +11807,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
         <v>612</v>
       </c>
@@ -11730,7 +11836,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
         <v>612</v>
       </c>
@@ -11744,7 +11850,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
         <v>612</v>
       </c>
@@ -11758,7 +11864,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
         <v>612</v>
       </c>
@@ -11772,7 +11878,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
         <v>612</v>
       </c>
@@ -11789,7 +11895,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
         <v>612</v>
       </c>
@@ -11815,7 +11921,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
         <v>612</v>
       </c>
@@ -11841,7 +11947,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
         <v>612</v>
       </c>
@@ -11858,7 +11964,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
         <v>612</v>
       </c>
@@ -11869,7 +11975,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
         <v>612</v>
       </c>
@@ -11883,7 +11989,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
         <v>612</v>
       </c>
@@ -11900,7 +12006,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
         <v>612</v>
       </c>
@@ -11935,7 +12041,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
         <v>612</v>
       </c>
@@ -11967,7 +12073,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
         <v>612</v>
       </c>
@@ -11993,7 +12099,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
         <v>612</v>
       </c>
@@ -12004,7 +12110,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
         <v>612</v>
       </c>
@@ -12042,7 +12148,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
         <v>612</v>
       </c>
@@ -12059,7 +12165,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
         <v>612</v>
       </c>
@@ -12070,7 +12176,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
         <v>612</v>
       </c>
@@ -12081,7 +12187,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
         <v>612</v>
       </c>
@@ -12101,7 +12207,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
         <v>612</v>
       </c>
@@ -12115,7 +12221,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
         <v>612</v>
       </c>
@@ -12123,7 +12229,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
         <v>612</v>
       </c>
@@ -12134,7 +12240,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
         <v>612</v>
       </c>
@@ -12155,7 +12261,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
         <v>612</v>
       </c>
@@ -12163,7 +12269,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
         <v>612</v>
       </c>
@@ -12174,7 +12280,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
         <v>612</v>
       </c>
@@ -12191,7 +12297,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
         <v>612</v>
       </c>
@@ -12199,7 +12305,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
         <v>612</v>
       </c>
@@ -12213,7 +12319,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
         <v>1346</v>
       </c>
@@ -12224,7 +12330,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
         <v>1349</v>
       </c>
@@ -12247,7 +12353,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
         <v>1349</v>
       </c>
@@ -12282,7 +12388,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
         <v>1349</v>
       </c>
@@ -12293,7 +12399,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
         <v>1349</v>
       </c>
@@ -12310,7 +12416,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
         <v>1349</v>
       </c>
@@ -12348,7 +12454,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
         <v>1376</v>
       </c>
@@ -12377,7 +12483,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
         <v>1376</v>
       </c>
@@ -12391,7 +12497,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
         <v>1376</v>
       </c>
@@ -12402,7 +12508,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
         <v>1376</v>
       </c>
@@ -12413,7 +12519,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
         <v>1376</v>
       </c>
@@ -12424,7 +12530,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
         <v>1376</v>
       </c>
@@ -12438,7 +12544,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
         <v>1376</v>
       </c>
@@ -12452,7 +12558,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
         <v>1376</v>
       </c>
@@ -12463,7 +12569,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
         <v>1376</v>
       </c>
@@ -12471,7 +12577,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
         <v>1399</v>
       </c>
@@ -12497,7 +12603,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
         <v>1399</v>
       </c>
@@ -12514,7 +12620,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
         <v>1399</v>
       </c>
@@ -12552,7 +12658,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
         <v>1399</v>
       </c>
@@ -12575,7 +12681,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
         <v>1399</v>
       </c>
@@ -12595,7 +12701,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
         <v>1399</v>
       </c>
@@ -12615,7 +12721,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
         <v>1399</v>
       </c>
@@ -12638,7 +12744,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
         <v>1399</v>
       </c>
@@ -12664,7 +12770,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
         <v>1399</v>
       </c>
@@ -12684,7 +12790,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12704,7 +12810,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12724,7 +12830,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12753,7 +12859,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12779,7 +12885,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12799,7 +12905,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12837,7 +12943,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12881,7 +12987,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12892,7 +12998,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12915,7 +13021,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12944,7 +13050,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12955,7 +13061,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
         <v>1511</v>
       </c>
@@ -12963,7 +13069,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
         <v>1511</v>
       </c>
@@ -12974,7 +13080,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
         <v>1511</v>
       </c>
@@ -12982,7 +13088,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
         <v>1511</v>
       </c>
@@ -12990,7 +13096,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
         <v>1511</v>
       </c>
@@ -12998,7 +13104,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="s">
         <v>1511</v>
       </c>
@@ -13009,7 +13115,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
         <v>1511</v>
       </c>
@@ -13020,7 +13126,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="s">
         <v>1522</v>
       </c>
@@ -13031,7 +13137,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
         <v>1522</v>
       </c>
@@ -13042,7 +13148,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
         <v>1522</v>
       </c>
@@ -13053,7 +13159,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
         <v>1522</v>
       </c>
@@ -13064,7 +13170,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
         <v>1522</v>
       </c>
@@ -13075,7 +13181,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
         <v>1522</v>
       </c>
@@ -13086,7 +13192,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13127,7 +13233,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13168,7 +13274,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13194,7 +13300,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13238,7 +13344,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13273,7 +13379,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13311,7 +13417,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13349,7 +13455,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13390,7 +13496,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13428,7 +13534,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13454,7 +13560,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13492,7 +13598,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13521,7 +13627,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13535,7 +13641,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13558,7 +13664,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13584,7 +13690,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13604,7 +13710,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13624,7 +13730,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13635,7 +13741,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13646,7 +13752,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13657,7 +13763,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13665,7 +13771,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13673,7 +13779,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13684,7 +13790,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13692,7 +13798,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13700,7 +13806,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13714,7 +13820,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
         <v>1534</v>
       </c>
@@ -13728,7 +13834,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="s">
         <v>941</v>
       </c>
@@ -13742,7 +13848,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="s">
         <v>941</v>
       </c>
@@ -13756,7 +13862,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="s">
         <v>941</v>
       </c>
@@ -13764,7 +13870,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
         <v>941</v>
       </c>
@@ -13772,7 +13878,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
         <v>941</v>
       </c>
@@ -13780,7 +13886,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
         <v>1710</v>
       </c>
@@ -13794,7 +13900,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="s">
         <v>1710</v>
       </c>
@@ -13808,7 +13914,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
         <v>1710</v>
       </c>
@@ -13837,7 +13943,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
         <v>1710</v>
       </c>
@@ -13860,7 +13966,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
         <v>1710</v>
       </c>
@@ -13871,7 +13977,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="s">
         <v>1710</v>
       </c>
@@ -13882,7 +13988,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="s">
         <v>1710</v>
       </c>
@@ -13893,7 +13999,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="s">
         <v>1710</v>
       </c>
@@ -13922,7 +14028,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="s">
         <v>1710</v>
       </c>
@@ -13948,7 +14054,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="s">
         <v>1748</v>
       </c>
@@ -13962,7 +14068,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
         <v>1748</v>
       </c>
@@ -13982,7 +14088,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="s">
         <v>1748</v>
       </c>
@@ -13993,7 +14099,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="s">
         <v>1748</v>
       </c>
@@ -14025,7 +14131,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
         <v>1748</v>
       </c>
@@ -14063,7 +14169,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
         <v>1748</v>
       </c>
@@ -14092,7 +14198,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
         <v>1748</v>
       </c>
@@ -14109,7 +14215,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="s">
         <v>1748</v>
       </c>
@@ -14135,7 +14241,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14161,7 +14267,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14184,7 +14290,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14192,7 +14298,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14215,7 +14321,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14241,7 +14347,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14267,7 +14373,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14290,7 +14396,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14304,7 +14410,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14324,7 +14430,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14344,7 +14450,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14358,7 +14464,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14369,7 +14475,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14386,7 +14492,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14397,7 +14503,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14405,7 +14511,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14422,7 +14528,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14436,7 +14542,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14444,7 +14550,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14455,7 +14561,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14469,7 +14575,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14480,7 +14586,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14491,7 +14597,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14502,7 +14608,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14516,7 +14622,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14530,7 +14636,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14538,7 +14644,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14549,7 +14655,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14560,7 +14666,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14574,7 +14680,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14588,7 +14694,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14602,7 +14708,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14625,7 +14731,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14633,7 +14739,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14641,7 +14747,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14658,7 +14764,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14675,7 +14781,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14698,7 +14804,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14718,7 +14824,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14726,7 +14832,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14749,7 +14855,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14769,7 +14875,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14789,7 +14895,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14800,7 +14906,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14811,7 +14917,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14828,7 +14934,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14854,7 +14960,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14862,7 +14968,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14876,7 +14982,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14899,7 +15005,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14925,7 +15031,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14942,7 +15048,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14962,7 +15068,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14976,7 +15082,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14999,7 +15105,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15019,7 +15125,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15039,7 +15145,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15068,7 +15174,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15085,7 +15191,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15099,7 +15205,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15119,7 +15225,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15148,7 +15254,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15186,7 +15292,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15200,7 +15306,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15223,7 +15329,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15246,7 +15352,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15281,7 +15387,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15301,7 +15407,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15336,7 +15442,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15362,7 +15468,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15376,7 +15482,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15396,7 +15502,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15431,7 +15537,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15439,7 +15545,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15468,7 +15574,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15488,7 +15594,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="s">
         <v>89</v>
       </c>
@@ -15499,7 +15605,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15513,7 +15619,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15533,7 +15639,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3" t="s">
         <v>612</v>
       </c>
@@ -15544,7 +15650,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="s">
         <v>612</v>
       </c>
@@ -15564,7 +15670,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15572,7 +15678,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
         <v>436</v>
       </c>
@@ -15583,7 +15689,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15600,7 +15706,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15611,7 +15717,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3" t="s">
         <v>941</v>
       </c>
@@ -15622,7 +15728,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15642,7 +15748,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15665,7 +15771,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15679,7 +15785,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15693,7 +15799,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15704,7 +15810,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15715,7 +15821,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15726,7 +15832,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15734,7 +15840,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15754,7 +15860,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15765,7 +15871,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15776,7 +15882,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15787,7 +15893,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15813,7 +15919,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15839,7 +15945,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15856,7 +15962,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15867,7 +15973,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3" t="s">
         <v>1795</v>
       </c>
@@ -15884,7 +15990,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3" t="s">
         <v>612</v>
       </c>
